--- a/config-nssd-migration-perinatal_workflow/forms/app/psupp_screening_form.xlsx
+++ b/config-nssd-migration-perinatal_workflow/forms/app/psupp_screening_form.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="87">
   <si>
     <t>type</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>PSuPP Form</t>
+  </si>
+  <si>
+    <t>psupp_screening_form</t>
   </si>
   <si>
     <t>pages</t>
@@ -439,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -499,6 +502,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -1546,42 +1552,42 @@
       <c r="A2" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="20">
+      <c r="B2" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="21">
         <v>1.0</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="20">
+        <v>85</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="21">
         <v>1.0</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
